--- a/doc/게임화면(문혜원)/요구사항명세서(문혜원).xlsx
+++ b/doc/게임화면(문혜원)/요구사항명세서(문혜원).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\WarDron\doc\게임화면(문혜원)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\github\WarDron\doc\게임화면(문혜원)\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856C0D9D-6D90-4930-AD4A-6E70338AC840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="21795" windowHeight="12975"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="52">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,18 +59,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>김태석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사용자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>김태석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>game</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -89,22 +71,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>game_hpbar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game_itembar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>game_minimap</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아이템칸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>체력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -113,18 +83,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>map_deseat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사막맵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>object_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>보급품</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -141,14 +103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>게임에 보여줄 화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>값에 따라 변경되는 체력바</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>획득한 아이템을 보여줄 바</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -165,18 +119,131 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>map_finalPoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>최종 목적지</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문혜원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임에 보여줄 1인칭 화면
+배터리, 아이템칸, 미니맵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game_hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game_item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 칸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>값에 따라 변경되는 배터리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보급품을 모두 모으고 도착할 장소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>object_item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">아이템: </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>object_item_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>object</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>world_deseat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>world_finalPoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상호작용 객체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상호작용 할 수 있는 객체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>객체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>획득&amp;사용 가능한 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돋보기 모양 보급품 추적 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상단 배터리
+왼쪽 하단 미니맵
+오른쪽 하단 아이템칸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상단 수
+왼쪽 하단 객체
+오른쪽 하단 있는</t>
+  </si>
+  <si>
+    <t>회색 줄무늬 사각형
+값에 따라 초록색 줄무늬 사각형 차지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회색 줄무늬 사각형
+획득한 아이템을 초록색 줄무늬 사각형 차지</t>
+  </si>
+  <si>
+    <t>회색 줄무늬 사각형
+드론의 위치를 초록색 줄무늬 사각형 차지</t>
+  </si>
+  <si>
+    <t>회색 줄무늬 사각형
+사막 초록색 줄무늬 사각형 차지</t>
+  </si>
+  <si>
+    <t>회색 줄무늬 사각형
+보급품을 모두 모으고 초록색 줄무늬 사각형 차지</t>
+  </si>
+  <si>
+    <t>회색 줄무늬 사각형
+모아야 초록색 줄무늬 사각형 차지</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -559,11 +626,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -610,20 +677,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="G3" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H3" s="2"/>
     </row>
@@ -632,20 +701,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="G4" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="H4" s="2"/>
     </row>
@@ -654,18 +725,21 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F5" s="2"/>
+      <c r="G5" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -673,18 +747,21 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2"/>
+      <c r="G6" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -692,18 +769,21 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2"/>
+      <c r="G7" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -711,18 +791,21 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F8" s="2"/>
+      <c r="G8" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -730,16 +813,21 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="F9" s="2"/>
+      <c r="G9" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -747,25 +835,39 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>9</v>
+        <v>41</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -773,10 +875,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>9</v>
+        <v>41</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -784,15 +895,30 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>9</v>
+        <v>41</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">

--- a/doc/게임화면(문혜원)/요구사항명세서(문혜원).xlsx
+++ b/doc/게임화면(문혜원)/요구사항명세서(문혜원).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\github\WarDron\doc\게임화면(문혜원)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856C0D9D-6D90-4930-AD4A-6E70338AC840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA379E7-B9CB-4D33-8BEB-FEEB73F91F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,14 +88,6 @@
   </si>
   <si>
     <t>보급품</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>object_supplies</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>object_item_findBySupplies</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -156,22 +148,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>object_item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">아이템: </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>object_item_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>object</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>세계</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -184,15 +164,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>상호작용 객체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상호작용 할 수 있는 객체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>객체</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -210,34 +182,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>상단 수
-왼쪽 하단 객체
-오른쪽 하단 있는</t>
-  </si>
-  <si>
     <t>회색 줄무늬 사각형
 값에 따라 초록색 줄무늬 사각형 차지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회색 줄무늬 사각형
-획득한 아이템을 초록색 줄무늬 사각형 차지</t>
-  </si>
-  <si>
-    <t>회색 줄무늬 사각형
-드론의 위치를 초록색 줄무늬 사각형 차지</t>
-  </si>
-  <si>
-    <t>회색 줄무늬 사각형
-사막 초록색 줄무늬 사각형 차지</t>
-  </si>
-  <si>
-    <t>회색 줄무늬 사각형
-보급품을 모두 모으고 초록색 줄무늬 사각형 차지</t>
-  </si>
-  <si>
-    <t>회색 줄무늬 사각형
-모아야 초록색 줄무늬 사각형 차지</t>
+    <t>actor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actor_supplies</t>
+  </si>
+  <si>
+    <t>actor_item</t>
+  </si>
+  <si>
+    <t>actor_item_findBySupplies</t>
+  </si>
+  <si>
+    <t>actor_item_</t>
+  </si>
+  <si>
+    <t>오브젝트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엑터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -629,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -686,13 +657,13 @@
         <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H3" s="2"/>
     </row>
@@ -701,7 +672,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -710,13 +681,13 @@
         <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H4" s="2"/>
     </row>
@@ -725,20 +696,20 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -756,11 +727,11 @@
         <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -769,20 +740,20 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -791,20 +762,20 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H8" s="2"/>
     </row>
@@ -813,20 +784,20 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H9" s="2"/>
     </row>
@@ -835,19 +806,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -855,19 +826,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -875,19 +846,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -895,16 +866,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -912,13 +883,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
